--- a/data/predictions/gender/gay_marr/leveled/independent.xlsx
+++ b/data/predictions/gender/gay_marr/leveled/independent.xlsx
@@ -739,19 +739,19 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>0.08203185292415209</v>
+        <v>0.08046313425989796</v>
       </c>
       <c r="D34">
         <v>0.1193703360887802</v>
       </c>
       <c r="G34">
-        <v>0.06323416011217205</v>
+        <v>0.1537063242315756</v>
       </c>
       <c r="I34">
         <v>0.2806818479666296</v>
       </c>
       <c r="J34">
-        <v>0.4198045387950231</v>
+        <v>0.3319127559336885</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -759,19 +759,19 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>0.04315848657842531</v>
+        <v>0.04217435945081241</v>
       </c>
       <c r="D35">
         <v>0.1042405805326593</v>
       </c>
       <c r="G35">
-        <v>0.06587546306331955</v>
+        <v>0.1584022697108858</v>
       </c>
       <c r="I35">
         <v>0.3104443700731991</v>
       </c>
       <c r="J35">
-        <v>0.4384489228321915</v>
+        <v>0.369479087864476</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -779,19 +779,19 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>0.007577827923768078</v>
+        <v>0.009018529212907231</v>
       </c>
       <c r="D36">
         <v>0.09077387093107671</v>
       </c>
       <c r="G36">
-        <v>0.04816584995470764</v>
+        <v>0.1523767219116497</v>
       </c>
       <c r="I36">
         <v>0.3387321324802756</v>
       </c>
       <c r="J36">
-        <v>0.4742615293253144</v>
+        <v>0.4541747018792475</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -799,19 +799,19 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>-0.02755798563900043</v>
+        <v>-0.0529428318741041</v>
       </c>
       <c r="D37">
         <v>0.07795205301223666</v>
       </c>
       <c r="G37">
-        <v>0.04168881470384536</v>
+        <v>0.1269678056414822</v>
       </c>
       <c r="I37">
         <v>0.3658252480240073</v>
       </c>
       <c r="J37">
-        <v>0.5300788145250884</v>
+        <v>0.502598461443622</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -819,19 +819,19 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>-0.06263370059164505</v>
+        <v>-0.0534907131569488</v>
       </c>
       <c r="D38">
         <v>0.06538030953140933</v>
       </c>
       <c r="G38">
-        <v>0.02311628770997108</v>
+        <v>0.154406633826573</v>
       </c>
       <c r="I38">
         <v>0.3919506254822799</v>
       </c>
       <c r="J38">
-        <v>0.5713343917464195</v>
+        <v>0.4954427242088035</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -839,19 +839,19 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>-0.09770129621689981</v>
+        <v>-0.08268351254966963</v>
       </c>
       <c r="D39">
         <v>0.05290553927293992</v>
       </c>
       <c r="G39">
-        <v>0.0162059689098191</v>
+        <v>0.1034050243530885</v>
       </c>
       <c r="I39">
         <v>0.4172920750445498</v>
       </c>
       <c r="J39">
-        <v>0.6023613328615377</v>
+        <v>0.5874379720441678</v>
       </c>
     </row>
   </sheetData>
